--- a/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
@@ -9,24 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="723" firstSheet="2" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
-    <sheet name="账户表" sheetId="3" r:id="rId2"/>
-    <sheet name="用户表" sheetId="4" r:id="rId3"/>
-    <sheet name="用户日程事件中间表" sheetId="15" r:id="rId4"/>
-    <sheet name="日程事件主表" sheetId="10" r:id="rId5"/>
-    <sheet name="日程事件副表" sheetId="12" r:id="rId6"/>
-    <sheet name="日程标签表" sheetId="11" r:id="rId7"/>
-    <sheet name="提醒时间表" sheetId="13" r:id="rId8"/>
-    <sheet name="提醒类型表" sheetId="14" r:id="rId9"/>
-    <sheet name="群组日程事件中间表" sheetId="16" r:id="rId10"/>
-    <sheet name="群组表" sheetId="7" r:id="rId11"/>
+    <sheet name="标签权限中间表" sheetId="18" r:id="rId2"/>
+    <sheet name="群组标签中间表" sheetId="17" r:id="rId3"/>
+    <sheet name="日程标签中间表" sheetId="16" r:id="rId4"/>
+    <sheet name="权限规则表" sheetId="15" r:id="rId5"/>
+    <sheet name="标签表" sheetId="14" r:id="rId6"/>
+    <sheet name="群组日程事件中间表" sheetId="13" r:id="rId7"/>
+    <sheet name="用户日程事件中间表" sheetId="12" r:id="rId8"/>
+    <sheet name="提醒时间表" sheetId="11" r:id="rId9"/>
+    <sheet name="日程参与人表" sheetId="10" r:id="rId10"/>
+    <sheet name="日程事件表" sheetId="9" r:id="rId11"/>
     <sheet name="群成员表" sheetId="8" r:id="rId12"/>
-    <sheet name="群组标签表" sheetId="9" r:id="rId13"/>
+    <sheet name="群组表" sheetId="7" r:id="rId13"/>
     <sheet name="登陆记录表" sheetId="6" r:id="rId14"/>
     <sheet name="关系人表" sheetId="5" r:id="rId15"/>
+    <sheet name="用户表" sheetId="4" r:id="rId16"/>
+    <sheet name="账户表" sheetId="3" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="171">
   <si>
     <t>表名</t>
   </si>
@@ -82,28 +84,16 @@
     <t>GTD_GROUP_MEMBER</t>
   </si>
   <si>
-    <t>群组标签表</t>
-  </si>
-  <si>
-    <t>GTD_GROUP_TYPE</t>
-  </si>
-  <si>
-    <t>日程事件主表</t>
+    <t>日程事件表</t>
   </si>
   <si>
     <t>GTD_SCHEDULE</t>
   </si>
   <si>
-    <t>日程标签表</t>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE_TYPE</t>
-  </si>
-  <si>
-    <t>日程事件副表</t>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE_SUBTABLES</t>
+    <t>日程参与人表</t>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_PLAYERS</t>
   </si>
   <si>
     <t>提醒时间表</t>
@@ -112,12 +102,6 @@
     <t>GTD_REMIND</t>
   </si>
   <si>
-    <t>提醒类型表</t>
-  </si>
-  <si>
-    <t>GTD_REMIND_TYPE</t>
-  </si>
-  <si>
     <t>用户日程事件中间表</t>
   </si>
   <si>
@@ -130,6 +114,36 @@
     <t>GTD_GROUP_SCHEDULE</t>
   </si>
   <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>GTD_LABEL</t>
+  </si>
+  <si>
+    <t>权限规则表</t>
+  </si>
+  <si>
+    <t>GTD_RULE</t>
+  </si>
+  <si>
+    <t>日程标签中间表</t>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_LABEL</t>
+  </si>
+  <si>
+    <t>群组标签中间表</t>
+  </si>
+  <si>
+    <t>GTD_GROUP_LABEL</t>
+  </si>
+  <si>
+    <t>标签权限中间表</t>
+  </si>
+  <si>
+    <t>GTD_LABEL_RULE</t>
+  </si>
+  <si>
     <t>实体名</t>
   </si>
   <si>
@@ -361,28 +375,16 @@
     <t>GROUP_NAME</t>
   </si>
   <si>
-    <t>群组标签</t>
-  </si>
-  <si>
-    <t>记录标签ID，以逗号间隔</t>
-  </si>
-  <si>
-    <t>GROUP_LABEL</t>
-  </si>
-  <si>
-    <t>群组权限类型</t>
-  </si>
-  <si>
-    <t>记录标签权限，以逗号间隔</t>
-  </si>
-  <si>
-    <t>GROUP_TYPE</t>
-  </si>
-  <si>
     <t>群组创建人</t>
   </si>
   <si>
-    <t>GROUP_CREATOR</t>
+    <t>群组头像</t>
+  </si>
+  <si>
+    <t>GROUP_HEADIMG_URL</t>
+  </si>
+  <si>
+    <t>varchar(150)</t>
   </si>
   <si>
     <t>群成员自增主键</t>
@@ -391,30 +393,6 @@
     <t>GROUP_MEMBER_ID</t>
   </si>
   <si>
-    <t>群组标签ID</t>
-  </si>
-  <si>
-    <t>GROUP_TYPE_ID</t>
-  </si>
-  <si>
-    <t>群组标签权限</t>
-  </si>
-  <si>
-    <t>GROUP_PERMISSION</t>
-  </si>
-  <si>
-    <t>varchar(2)</t>
-  </si>
-  <si>
-    <t>群组标签名称</t>
-  </si>
-  <si>
-    <t>部分标签带有权限，区分群组类型</t>
-  </si>
-  <si>
-    <t>GROUP_TYPE_NAME</t>
-  </si>
-  <si>
     <t>日程事件ID</t>
   </si>
   <si>
@@ -439,112 +417,61 @@
     <t>SCHEDULE_DEADLINE</t>
   </si>
   <si>
-    <t>日程事件标签</t>
-  </si>
-  <si>
-    <t>记录日程标签ID，以逗号间隔</t>
-  </si>
-  <si>
-    <t>SCHEDULE_LABER</t>
-  </si>
-  <si>
-    <t>日程事件类型</t>
-  </si>
-  <si>
-    <t>SCHEDULE_TYPE</t>
-  </si>
-  <si>
     <t>日程重复类型</t>
   </si>
   <si>
-    <t>0是单次日程，1是重复日程</t>
+    <t>0是单次日程，1是每天重复，2是每周重复，3是每月重复</t>
   </si>
   <si>
     <t>SCHEDULE_REPEAT_TYPE</t>
   </si>
   <si>
-    <t>日程事件重复周期</t>
-  </si>
-  <si>
-    <t>格式：int（类型），int（时间）。每天：0，0；每周几：1，？；每月几号：2，？；</t>
-  </si>
-  <si>
-    <t>SCHEDULE_REPEAT_CYCLE</t>
-  </si>
-  <si>
-    <t>日程提醒类型</t>
-  </si>
-  <si>
-    <t>默认为0，0是提醒，1是不提醒</t>
-  </si>
-  <si>
-    <t>SCHEDULE_REMIND_TYPE</t>
-  </si>
-  <si>
-    <t>日程标签ID</t>
-  </si>
-  <si>
-    <t>SCHEDULE_TYPE_ID</t>
-  </si>
-  <si>
-    <t>日程标签名称</t>
-  </si>
-  <si>
-    <t>SCHEDULE_TYPE_NAME</t>
-  </si>
-  <si>
-    <t>日程权限类型</t>
-  </si>
-  <si>
-    <t>部分标签带有权限，区别日程类型</t>
-  </si>
-  <si>
-    <t>SCHEDULE_PERMISSION</t>
-  </si>
-  <si>
-    <t>日程事件副表ID</t>
-  </si>
-  <si>
-    <t>SUBTABLES_ID</t>
+    <t>完成状态</t>
+  </si>
+  <si>
+    <t>0是完成，1是未完成，2是过期</t>
+  </si>
+  <si>
+    <t>SCHEDULE_STATUS</t>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+  </si>
+  <si>
+    <t>PLAYERS_ID</t>
   </si>
   <si>
     <t>日程事件表主键</t>
   </si>
   <si>
-    <t>完成状态</t>
-  </si>
-  <si>
     <t>0是完成，1是未完成，2是过期，-1是拒绝</t>
   </si>
   <si>
-    <t>SCHEDULE_STATUS</t>
+    <t>PLAYERS_STATUS</t>
   </si>
   <si>
     <t>完成时间</t>
   </si>
   <si>
-    <t>SCHEDULE_FINISH_DATE</t>
-  </si>
-  <si>
-    <t>执行人</t>
+    <t>PLAYERS_FINISH_DATE</t>
+  </si>
+  <si>
+    <t>参与人</t>
   </si>
   <si>
     <t>提醒时间ID</t>
   </si>
   <si>
+    <t>REMIND_ID</t>
+  </si>
+  <si>
+    <t>参与人表ID</t>
+  </si>
+  <si>
     <t>日程提醒时间</t>
   </si>
   <si>
-    <t>重复类型时间</t>
-  </si>
-  <si>
-    <t>提醒类型ID</t>
-  </si>
-  <si>
-    <t>REMIND_TYPE_ID</t>
-  </si>
-  <si>
-    <t>提醒类型名称</t>
+    <t>REMIND_DATE</t>
   </si>
   <si>
     <t>用户日常中间表自增主键</t>
@@ -553,60 +480,79 @@
     <t>USER_SCHEDULE_ID</t>
   </si>
   <si>
-    <t>日程事件主表ID</t>
-  </si>
-  <si>
     <t>群组日程事件自增主键</t>
   </si>
   <si>
     <t>GROUP_SCHEDULE_ID</t>
   </si>
   <si>
-    <t>GROUP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>日程事件表ID</t>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>LABEL_ID</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>LABEL_NAME</t>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+  </si>
+  <si>
+    <t>标签类型</t>
+  </si>
+  <si>
+    <t>0是日程，1是群组</t>
+  </si>
+  <si>
+    <t>LABEL_TYPE</t>
+  </si>
+  <si>
+    <t>权限规则ID</t>
+  </si>
+  <si>
+    <t>RULE_ID</t>
+  </si>
+  <si>
+    <t>权限名称</t>
+  </si>
+  <si>
+    <t>RULE_NAME</t>
+  </si>
+  <si>
+    <t>规则说明</t>
+  </si>
+  <si>
+    <t>RULE_COMMENT</t>
+  </si>
+  <si>
+    <t>中间表自增ID</t>
+  </si>
+  <si>
+    <t>SCHEDULE_LABEL_ID</t>
+  </si>
+  <si>
+    <t>中间表自增主键</t>
+  </si>
+  <si>
+    <t>GROUP_LABEL_ID</t>
+  </si>
+  <si>
+    <t>标签权限中间表自增ID</t>
+  </si>
+  <si>
+    <t>LABEL_RULE_ID</t>
+  </si>
+  <si>
+    <t>规则权限ID</t>
   </si>
   <si>
     <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组标签表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程标签表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件副表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMIND_TYPE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMIND_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMIND_RECEPT_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMIND_TYPE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMIND_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -985,11 +931,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1034,7 +978,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>178</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1058,7 +1002,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
@@ -1074,7 +1018,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>179</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
@@ -1082,7 +1026,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -1118,6 +1062,22 @@
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1127,6 +1087,409 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -1143,139 +1506,139 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1287,207 +1650,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1501,139 +1669,154 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1643,169 +1826,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1826,7 +1846,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1841,154 +1861,154 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2017,7 +2037,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -2032,169 +2052,169 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2226,232 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F15"/>
   <sheetViews>
@@ -2223,7 +2468,7 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -2238,203 +2483,203 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2446,9 +2691,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2463,203 +2708,300 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>81</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>62</v>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2688,139 +3030,139 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2834,7 +3176,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F16"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2849,239 +3191,139 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>134</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>111</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>139</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3095,7 +3337,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3110,173 +3352,141 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3305,141 +3515,139 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>152</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3453,11 +3661,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3470,169 +3676,139 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>165</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3646,11 +3822,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F9"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3663,124 +3837,139 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -29,6 +29,9 @@
     <sheet name="关系人表" sheetId="5" r:id="rId15"/>
     <sheet name="用户表" sheetId="4" r:id="rId16"/>
     <sheet name="账户表" sheetId="3" r:id="rId17"/>
+    <sheet name="角色表" sheetId="20" r:id="rId18"/>
+    <sheet name="用户角色中间表" sheetId="21" r:id="rId19"/>
+    <sheet name="角色权限中间表" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="185">
   <si>
     <t>表名</t>
   </si>
@@ -554,6 +557,48 @@
   <si>
     <t>USER_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(6)</t>
+  </si>
+  <si>
+    <t>ROLE_NAME</t>
+  </si>
+  <si>
+    <t>角色名</t>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+  </si>
+  <si>
+    <t>角色ID</t>
+  </si>
+  <si>
+    <t>GTD_ROLE</t>
+  </si>
+  <si>
+    <t>角色表</t>
+  </si>
+  <si>
+    <t>USER_ROLE_ID</t>
+  </si>
+  <si>
+    <t>GTD_USER_ROLE</t>
+  </si>
+  <si>
+    <t>用户角色中间表</t>
+  </si>
+  <si>
+    <t>权限ID</t>
+  </si>
+  <si>
+    <t>ROLE_RULE_ID</t>
+  </si>
+  <si>
+    <t>GTD_ROLE_RULE</t>
+  </si>
+  <si>
+    <t>角色权限中间表</t>
   </si>
 </sst>
 </file>
@@ -629,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,6 +692,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -931,9 +979,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1078,6 +1128,30 @@
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1111,10 +1185,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1306,10 +1380,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1514,10 +1588,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1654,7 +1728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1677,10 +1751,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1854,10 +1928,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -2045,10 +2119,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -2251,10 +2325,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -2476,10 +2550,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -2679,6 +2753,313 @@
         <v>70</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2716,10 +3097,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -2778,6 +3159,167 @@
       </c>
       <c r="E6" s="4" t="s">
         <v>150</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -2877,10 +3419,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -3038,10 +3580,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -3199,10 +3741,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -3360,10 +3902,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -3523,10 +4065,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -3684,10 +4226,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -3845,10 +4387,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">

--- a/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="189">
   <si>
     <t>表名</t>
   </si>
@@ -294,9 +294,6 @@
     <t>联系方式</t>
   </si>
   <si>
-    <t>USER_CONTACT</t>
-  </si>
-  <si>
     <t>用户类型</t>
   </si>
   <si>
@@ -445,9 +442,6 @@
   </si>
   <si>
     <t>日程事件表主键</t>
-  </si>
-  <si>
-    <t>0是完成，1是未完成，2是过期，-1是拒绝</t>
   </si>
   <si>
     <t>PLAYERS_STATUS</t>
@@ -599,13 +593,37 @@
   </si>
   <si>
     <t>角色权限中间表</t>
+  </si>
+  <si>
+    <t>0是完成，1是未完成，2是过期，3是未接受，-1是拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,13 +639,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -674,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,6 +736,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,11 +1025,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -994,7 +1038,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1018,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1026,7 +1070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1034,7 +1078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1042,7 +1086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1050,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1058,7 +1102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1066,7 +1110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1074,7 +1118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1082,7 +1126,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1090,7 +1134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1098,7 +1142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1106,7 +1150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1114,7 +1158,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1122,7 +1166,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1130,28 +1174,28 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1164,9 +1208,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -1175,7 +1221,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1190,7 +1236,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1207,77 +1253,77 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27">
+      <c r="A6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>44</v>
@@ -1286,7 +1332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
@@ -1301,7 +1347,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>64</v>
       </c>
@@ -1316,7 +1362,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
@@ -1331,7 +1377,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>69</v>
       </c>
@@ -1352,6 +1398,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1361,7 +1408,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -1370,7 +1417,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1385,7 +1432,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1402,99 +1449,99 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="27">
       <c r="A8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
@@ -1509,7 +1556,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>64</v>
       </c>
@@ -1524,7 +1571,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
@@ -1539,7 +1586,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>69</v>
       </c>
@@ -1565,11 +1612,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -1578,7 +1627,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1593,7 +1642,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1610,37 +1659,37 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -1655,63 +1704,78 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1732,7 +1796,7 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -1741,7 +1805,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1756,7 +1820,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1773,67 +1837,67 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>62</v>
       </c>
@@ -1848,7 +1912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>64</v>
       </c>
@@ -1863,7 +1927,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
@@ -1878,7 +1942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -1909,7 +1973,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -1918,7 +1982,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1933,7 +1997,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1950,22 +2014,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
@@ -1980,52 +2044,52 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
@@ -2040,7 +2104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>64</v>
       </c>
@@ -2055,7 +2119,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
@@ -2070,7 +2134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>69</v>
       </c>
@@ -2100,7 +2164,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -2109,7 +2173,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -2124,7 +2188,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -2141,82 +2205,82 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -2225,13 +2289,13 @@
         <v>82</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
@@ -2246,7 +2310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>64</v>
       </c>
@@ -2261,7 +2325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
@@ -2276,7 +2340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>69</v>
       </c>
@@ -2304,9 +2368,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -2315,7 +2381,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -2330,7 +2396,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -2347,7 +2413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
@@ -2362,7 +2428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2377,7 +2443,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -2392,7 +2458,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
@@ -2407,7 +2473,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -2424,7 +2490,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
@@ -2433,30 +2499,30 @@
         <v>82</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
@@ -2471,7 +2537,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -2486,7 +2552,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>67</v>
       </c>
@@ -2501,7 +2567,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>69</v>
       </c>
@@ -2531,7 +2597,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -2540,7 +2606,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -2555,7 +2621,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -2572,7 +2638,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
@@ -2587,7 +2653,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -2602,7 +2668,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
@@ -2617,7 +2683,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
@@ -2634,7 +2700,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>51</v>
       </c>
@@ -2651,7 +2717,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
@@ -2666,7 +2732,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -2681,7 +2747,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
@@ -2696,7 +2762,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
@@ -2711,7 +2777,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
@@ -2726,7 +2792,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>67</v>
       </c>
@@ -2741,7 +2807,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
         <v>69</v>
       </c>
@@ -2771,7 +2837,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -2780,22 +2846,22 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -2812,37 +2878,37 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>62</v>
       </c>
@@ -2857,7 +2923,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>64</v>
       </c>
@@ -2872,7 +2938,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>67</v>
       </c>
@@ -2887,7 +2953,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -2917,7 +2983,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -2926,22 +2992,22 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -2958,22 +3024,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -2988,22 +3054,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
@@ -3018,7 +3084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -3033,7 +3099,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -3048,7 +3114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -3078,7 +3144,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -3087,7 +3153,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -3102,7 +3168,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -3119,52 +3185,52 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
@@ -3179,7 +3245,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -3194,7 +3260,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -3209,7 +3275,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -3239,7 +3305,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -3248,22 +3314,22 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -3280,28 +3346,28 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>44</v>
@@ -3310,22 +3376,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
@@ -3340,7 +3406,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -3355,7 +3421,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -3370,7 +3436,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -3400,7 +3466,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -3409,7 +3475,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -3424,7 +3490,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -3441,52 +3507,52 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
@@ -3501,7 +3567,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -3516,7 +3582,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -3531,7 +3597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -3561,7 +3627,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -3570,7 +3636,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -3585,7 +3651,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -3602,52 +3668,52 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
@@ -3662,7 +3728,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -3677,7 +3743,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -3692,7 +3758,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -3722,7 +3788,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -3731,7 +3797,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -3746,7 +3812,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -3763,52 +3829,52 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
@@ -3823,7 +3889,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -3838,7 +3904,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -3853,7 +3919,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -3883,7 +3949,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -3892,7 +3958,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -3907,7 +3973,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -3924,54 +3990,54 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
@@ -3986,7 +4052,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -4001,7 +4067,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -4016,7 +4082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -4046,7 +4112,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -4055,7 +4121,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -4070,7 +4136,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -4087,52 +4153,52 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
@@ -4147,7 +4213,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -4162,7 +4228,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -4177,7 +4243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -4207,7 +4273,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -4216,7 +4282,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -4231,7 +4297,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -4248,37 +4314,37 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="27">
       <c r="A4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -4293,7 +4359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
@@ -4308,7 +4374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -4323,7 +4389,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -4338,7 +4404,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -4368,7 +4434,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
@@ -4377,7 +4443,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -4392,7 +4458,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -4409,52 +4475,52 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
@@ -4469,7 +4535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -4484,7 +4550,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -4499,7 +4565,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>

--- a/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="193">
   <si>
     <t>表名</t>
   </si>
@@ -599,14 +599,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USER_CONTACT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -616,6 +608,30 @@
   </si>
   <si>
     <t>varchar(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,14 +750,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1231,10 +1247,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1427,10 +1443,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1612,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1637,10 +1653,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1691,14 +1707,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -1706,76 +1722,89 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="4" t="s">
         <v>188</v>
       </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1785,6 +1814,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1815,10 +1845,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1992,10 +2022,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2183,10 +2213,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2391,10 +2421,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2499,17 +2529,17 @@
         <v>82</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2616,10 +2646,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2856,10 +2886,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3002,10 +3032,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3163,10 +3193,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3324,10 +3354,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3485,10 +3515,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3646,10 +3676,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3807,10 +3837,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3968,10 +3998,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4131,10 +4161,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4292,10 +4322,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4453,10 +4483,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">

--- a/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="196">
   <si>
     <t>表名</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>账户名</t>
-  </si>
-  <si>
-    <t>用来保存注册时生成的唯一标识码</t>
   </si>
   <si>
     <t>ACCOUNT_NAME</t>
@@ -632,6 +629,22 @@
   </si>
   <si>
     <t>群成员姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息队列名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_UUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_QUEUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1192,26 +1205,26 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1271,14 +1284,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -1286,16 +1299,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -1303,16 +1316,16 @@
     </row>
     <row r="6" spans="1:6" ht="27">
       <c r="A6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -1320,26 +1333,26 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>44</v>
@@ -1350,14 +1363,14 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -1365,29 +1378,29 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>42</v>
@@ -1395,17 +1408,17 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1467,14 +1480,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -1482,14 +1495,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>47</v>
@@ -1497,46 +1510,46 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="27">
       <c r="A8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>42</v>
@@ -1544,29 +1557,29 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -1574,29 +1587,29 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>42</v>
@@ -1604,17 +1617,17 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1630,7 +1643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1677,14 +1690,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -1692,14 +1705,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -1707,14 +1720,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -1722,42 +1735,42 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -1765,29 +1778,29 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>42</v>
@@ -1795,17 +1808,17 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1869,14 +1882,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -1884,29 +1897,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -1914,29 +1927,29 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>42</v>
@@ -1944,29 +1957,29 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -1974,17 +1987,17 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2046,14 +2059,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -2076,44 +2089,44 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>47</v>
@@ -2121,14 +2134,14 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -2136,29 +2149,29 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>42</v>
@@ -2166,17 +2179,17 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2237,14 +2250,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -2252,44 +2265,44 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>47</v>
@@ -2297,44 +2310,44 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -2342,29 +2355,29 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>42</v>
@@ -2372,17 +2385,17 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2460,61 +2473,61 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>42</v>
@@ -2522,31 +2535,31 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="D10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>42</v>
@@ -2554,14 +2567,14 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>42</v>
@@ -2569,29 +2582,29 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>42</v>
@@ -2599,17 +2612,17 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2623,9 +2636,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2717,14 +2732,12 @@
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>47</v>
@@ -2732,31 +2745,31 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>47</v>
@@ -2764,14 +2777,14 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>47</v>
@@ -2779,59 +2792,59 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>42</v>
@@ -2839,17 +2852,47 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>66</v>
+      <c r="F17" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2858,6 +2901,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2881,13 +2925,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F2" s="9"/>
     </row>
@@ -2910,14 +2954,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -2925,29 +2969,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -2955,29 +2999,29 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>42</v>
@@ -2985,17 +3029,17 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3027,13 +3071,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F2" s="9"/>
     </row>
@@ -3056,14 +3100,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3086,14 +3130,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -3101,14 +3145,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>42</v>
@@ -3116,29 +3160,29 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -3146,17 +3190,17 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3217,14 +3261,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3232,14 +3276,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -3247,14 +3291,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -3262,14 +3306,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>42</v>
@@ -3277,29 +3321,29 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -3307,17 +3351,17 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3349,13 +3393,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="9"/>
     </row>
@@ -3378,14 +3422,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3393,11 +3437,11 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>44</v>
@@ -3408,14 +3452,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -3423,14 +3467,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>42</v>
@@ -3438,29 +3482,29 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -3468,17 +3512,17 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3539,14 +3583,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3554,14 +3598,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -3569,14 +3613,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -3584,14 +3628,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>42</v>
@@ -3599,29 +3643,29 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -3629,17 +3673,17 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3700,14 +3744,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3715,14 +3759,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -3730,14 +3774,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -3745,14 +3789,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>42</v>
@@ -3760,29 +3804,29 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -3790,17 +3834,17 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3861,14 +3905,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3876,29 +3920,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>47</v>
@@ -3906,14 +3950,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>42</v>
@@ -3921,29 +3965,29 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -3951,17 +3995,17 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4022,14 +4066,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -4037,31 +4081,31 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -4069,14 +4113,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>42</v>
@@ -4084,29 +4128,29 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -4114,17 +4158,17 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4185,14 +4229,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -4200,14 +4244,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -4215,14 +4259,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -4230,14 +4274,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>42</v>
@@ -4245,29 +4289,29 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -4275,17 +4319,17 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4346,14 +4390,14 @@
     </row>
     <row r="4" spans="1:6" ht="27">
       <c r="A4" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -4361,14 +4405,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -4391,14 +4435,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>42</v>
@@ -4406,29 +4450,29 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -4436,17 +4480,17 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4507,14 +4551,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -4522,14 +4566,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -4537,29 +4581,29 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>42</v>
@@ -4567,29 +4611,29 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -4597,17 +4641,17 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" firstSheet="7" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="197">
   <si>
     <t>表名</t>
   </si>
@@ -645,6 +645,10 @@
   </si>
   <si>
     <t>ACCOUNT_QUEUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +687,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,6 +697,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,6 +780,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1237,7 +1256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1435,7 +1454,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1539,19 +1560,20 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="27">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1568,7 +1590,9 @@
       <c r="E9" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
@@ -1636,6 +1660,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2638,7 +2663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12:F13"/>
     </sheetView>
   </sheetViews>

--- a/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="199">
   <si>
     <t>表名</t>
   </si>
@@ -649,6 +649,14 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_FINISH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,9 +787,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -789,6 +794,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1256,7 +1264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1279,10 +1287,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1452,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1477,10 +1485,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1560,20 +1568,20 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="27">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1596,61 +1604,76 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1691,10 +1714,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1861,7 +1884,7 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1883,10 +1906,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2060,10 +2083,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2251,10 +2274,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2459,10 +2482,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2686,10 +2709,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2955,10 +2978,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3101,10 +3124,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3262,10 +3285,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3423,10 +3446,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3563,7 +3586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3584,10 +3609,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3745,10 +3770,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3906,10 +3931,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4046,7 +4071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4067,10 +4094,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4230,10 +4257,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4391,10 +4418,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4552,10 +4579,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">

--- a/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="207">
   <si>
     <t>表名</t>
   </si>
@@ -385,9 +385,6 @@
   </si>
   <si>
     <t>群成员自增主键</t>
-  </si>
-  <si>
-    <t>GROUP_MEMBER_ID</t>
   </si>
   <si>
     <t>日程事件ID</t>
@@ -600,10 +597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(11)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -657,6 +650,46 @@
   </si>
   <si>
     <t>SCHEDULE_FINISH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程提醒时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_MEMBER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_MEMBER_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是接受，1是未接受，2是拒绝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1232,26 +1265,26 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1265,7 +1298,7 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1311,14 +1344,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -1326,16 +1359,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -1343,16 +1376,16 @@
     </row>
     <row r="6" spans="1:6" ht="27">
       <c r="A6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -1360,14 +1393,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>65</v>
@@ -1375,11 +1408,11 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>44</v>
@@ -1462,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1509,14 +1542,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -1524,14 +1557,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>47</v>
@@ -1539,14 +1572,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>65</v>
@@ -1554,14 +1587,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>65</v>
@@ -1569,17 +1602,17 @@
     </row>
     <row r="8" spans="1:6" ht="27">
       <c r="A8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>42</v>
@@ -1587,31 +1620,31 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>65</v>
@@ -1689,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1745,7 +1778,7 @@
         <v>113</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -1768,14 +1801,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -1783,42 +1816,46 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>185</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>202</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -1826,46 +1863,61 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1967,7 +2019,7 @@
         <v>109</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -2590,7 +2642,7 @@
         <v>81</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>53</v>
@@ -2855,14 +2907,14 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>47</v>
@@ -2870,14 +2922,14 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>47</v>
@@ -2973,13 +3025,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F2" s="12"/>
     </row>
@@ -3002,14 +3054,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3017,17 +3069,17 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3119,13 +3171,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F2" s="12"/>
     </row>
@@ -3148,14 +3200,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3178,14 +3230,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -3309,14 +3361,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3324,14 +3376,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -3339,14 +3391,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -3441,13 +3493,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="12"/>
     </row>
@@ -3470,14 +3522,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3485,11 +3537,11 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>44</v>
@@ -3500,14 +3552,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -3633,14 +3685,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3663,14 +3715,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -3749,7 +3801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3794,14 +3848,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3809,14 +3863,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -3824,14 +3878,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -3955,14 +4009,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3970,29 +4024,29 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>47</v>
@@ -4118,14 +4172,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -4133,31 +4187,31 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -4281,14 +4335,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -4311,14 +4365,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -4442,14 +4496,14 @@
     </row>
     <row r="4" spans="1:6" ht="27">
       <c r="A4" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -4457,14 +4511,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -4558,7 +4612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4603,14 +4659,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -4618,14 +4674,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -4633,14 +4689,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>65</v>

--- a/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
@@ -689,7 +689,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0是接受，1是未接受，2是拒绝</t>
+    <t>0是本地，1是接受，2是未接受，3是拒绝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1725,7 +1725,7 @@
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -697,7 +697,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -724,6 +724,15 @@
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -787,12 +796,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,9 +844,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1114,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1136,7 +1152,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1144,7 +1160,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1152,7 +1168,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1168,7 +1184,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1176,7 +1192,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1184,7 +1200,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1192,7 +1208,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1289,6 +1305,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" location="账户表!A1" display="账户表"/>
+    <hyperlink ref="A3" location="用户表!A1" display="用户表"/>
+    <hyperlink ref="A4" location="关系人表!A1" display="关系人表"/>
+    <hyperlink ref="A8" location="日程事件表!A1" display="日程事件表"/>
+    <hyperlink ref="A6" location="群组表!A1" display="群组表"/>
+    <hyperlink ref="A7" location="群成员表!A1" display="群成员表"/>
+    <hyperlink ref="A9" location="日程参与人表!A1" display="日程参与人表"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1724,7 +1749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="212">
   <si>
     <t>表名</t>
   </si>
@@ -690,6 +690,26 @@
   </si>
   <si>
     <t>0是本地，1是接受，2是未接受，3是拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMIND_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是系统设置，2是用户设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,7 +824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,11 +861,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1130,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1152,7 +1175,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1160,7 +1183,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1168,7 +1191,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1176,7 +1199,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1184,7 +1207,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1192,7 +1215,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1200,7 +1223,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1208,7 +1231,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1216,7 +1239,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1224,7 +1247,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1232,7 +1255,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1240,7 +1263,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1248,7 +1271,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1256,7 +1279,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1264,7 +1287,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1272,7 +1295,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1280,7 +1303,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="12" t="s">
         <v>173</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1288,7 +1311,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="12" t="s">
         <v>176</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1296,7 +1319,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="12" t="s">
         <v>180</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1313,6 +1336,18 @@
     <hyperlink ref="A6" location="群组表!A1" display="群组表"/>
     <hyperlink ref="A7" location="群成员表!A1" display="群成员表"/>
     <hyperlink ref="A9" location="日程参与人表!A1" display="日程参与人表"/>
+    <hyperlink ref="A10" location="提醒时间表!A1" display="提醒时间表"/>
+    <hyperlink ref="A5" location="登陆记录表!A1" display="登陆记录表"/>
+    <hyperlink ref="A18" location="角色表!A1" display="角色表"/>
+    <hyperlink ref="A11" location="用户日程事件中间表!A1" display="用户日程事件中间表"/>
+    <hyperlink ref="A12" location="群组日程事件中间表!A1" display="群组日程事件中间表"/>
+    <hyperlink ref="A13" location="标签表!A1" display="标签表"/>
+    <hyperlink ref="A14" location="权限规则表!A1" display="权限规则表"/>
+    <hyperlink ref="A16" location="群组标签中间表!A1" display="群组标签中间表"/>
+    <hyperlink ref="A15" location="日程标签中间表!A1" display="日程标签中间表"/>
+    <hyperlink ref="A17" location="标签权限中间表!A1" display="标签权限中间表"/>
+    <hyperlink ref="A19" location="用户角色中间表!A1" display="用户角色中间表"/>
+    <hyperlink ref="A20" location="角色权限中间表!A1" display="角色权限中间表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1345,10 +1380,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1543,10 +1578,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1772,10 +1807,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1983,10 +2018,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2160,10 +2195,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2351,10 +2386,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2559,10 +2594,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2786,10 +2821,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3055,10 +3090,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3201,10 +3236,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3362,10 +3397,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3523,10 +3558,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3686,10 +3721,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3849,10 +3884,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4010,10 +4045,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4173,10 +4208,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4336,10 +4371,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4497,10 +4532,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4635,10 +4670,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4660,10 +4695,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4729,61 +4764,78 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>65</v>
       </c>
     </row>

--- a/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -498,9 +498,6 @@
     <t>标签类型</t>
   </si>
   <si>
-    <t>0是日程，1是群组</t>
-  </si>
-  <si>
     <t>LABEL_TYPE</t>
   </si>
   <si>
@@ -710,6 +707,10 @@
   </si>
   <si>
     <t>1是系统设置，2是用户设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2是日程，1是参与群组，3是参与个人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -864,10 +865,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1247,7 +1248,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1304,26 +1305,26 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1380,10 +1381,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1404,7 +1405,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -1439,7 +1440,7 @@
         <v>125</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>125</v>
@@ -1468,7 +1469,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
@@ -1578,10 +1579,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1692,19 +1693,19 @@
         <v>127</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>65</v>
@@ -1807,10 +1808,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1838,7 +1839,7 @@
         <v>113</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -1861,14 +1862,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -1876,46 +1877,46 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -2018,10 +2019,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2079,7 +2080,7 @@
         <v>109</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -2195,10 +2196,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2386,10 +2387,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2594,10 +2595,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2702,7 +2703,7 @@
         <v>81</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>53</v>
@@ -2821,10 +2822,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2967,14 +2968,14 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>47</v>
@@ -2982,14 +2983,14 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>47</v>
@@ -3085,15 +3086,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3114,14 +3115,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3129,17 +3130,17 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3231,15 +3232,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3260,14 +3261,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3290,14 +3291,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -3397,10 +3398,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3421,14 +3422,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3436,14 +3437,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -3553,15 +3554,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3582,14 +3583,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3597,11 +3598,11 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>44</v>
@@ -3612,14 +3613,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -3721,10 +3722,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3745,14 +3746,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3884,10 +3885,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3908,14 +3909,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -4045,10 +4046,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4069,14 +4070,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -4084,14 +4085,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>149</v>
@@ -4099,14 +4100,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>47</v>
@@ -4185,7 +4186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4208,10 +4209,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4265,13 +4266,13 @@
         <v>150</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>150</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -4371,10 +4372,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4532,10 +4533,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4672,7 +4673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4695,10 +4696,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4719,7 +4720,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -4734,7 +4735,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -4749,7 +4750,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -4764,19 +4765,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
@@ -9,29 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
-    <sheet name="标签权限中间表" sheetId="18" r:id="rId2"/>
-    <sheet name="群组标签中间表" sheetId="17" r:id="rId3"/>
-    <sheet name="日程标签中间表" sheetId="16" r:id="rId4"/>
-    <sheet name="权限规则表" sheetId="15" r:id="rId5"/>
-    <sheet name="标签表" sheetId="14" r:id="rId6"/>
-    <sheet name="群组日程事件中间表" sheetId="13" r:id="rId7"/>
-    <sheet name="用户日程事件中间表" sheetId="12" r:id="rId8"/>
-    <sheet name="提醒时间表" sheetId="11" r:id="rId9"/>
-    <sheet name="日程参与人表" sheetId="10" r:id="rId10"/>
-    <sheet name="日程事件表" sheetId="9" r:id="rId11"/>
-    <sheet name="群成员表" sheetId="8" r:id="rId12"/>
-    <sheet name="群组表" sheetId="7" r:id="rId13"/>
-    <sheet name="登陆记录表" sheetId="6" r:id="rId14"/>
-    <sheet name="关系人表" sheetId="5" r:id="rId15"/>
-    <sheet name="用户表" sheetId="4" r:id="rId16"/>
-    <sheet name="账户表" sheetId="3" r:id="rId17"/>
-    <sheet name="角色表" sheetId="20" r:id="rId18"/>
-    <sheet name="用户角色中间表" sheetId="21" r:id="rId19"/>
-    <sheet name="角色权限中间表" sheetId="22" r:id="rId20"/>
+    <sheet name="更新日志" sheetId="23" r:id="rId2"/>
+    <sheet name="标签权限中间表" sheetId="18" r:id="rId3"/>
+    <sheet name="群组标签中间表" sheetId="17" r:id="rId4"/>
+    <sheet name="日程标签中间表" sheetId="16" r:id="rId5"/>
+    <sheet name="权限规则表" sheetId="15" r:id="rId6"/>
+    <sheet name="标签表" sheetId="14" r:id="rId7"/>
+    <sheet name="群组日程事件中间表" sheetId="13" r:id="rId8"/>
+    <sheet name="用户日程事件中间表" sheetId="12" r:id="rId9"/>
+    <sheet name="提醒时间表" sheetId="11" r:id="rId10"/>
+    <sheet name="日程参与人表" sheetId="10" r:id="rId11"/>
+    <sheet name="日程事件表" sheetId="9" r:id="rId12"/>
+    <sheet name="群成员表" sheetId="8" r:id="rId13"/>
+    <sheet name="群组表" sheetId="7" r:id="rId14"/>
+    <sheet name="登陆记录表" sheetId="6" r:id="rId15"/>
+    <sheet name="关系人表" sheetId="5" r:id="rId16"/>
+    <sheet name="用户表" sheetId="4" r:id="rId17"/>
+    <sheet name="账户表" sheetId="3" r:id="rId18"/>
+    <sheet name="角色表" sheetId="20" r:id="rId19"/>
+    <sheet name="用户角色中间表" sheetId="21" r:id="rId20"/>
+    <sheet name="角色权限中间表" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="216">
   <si>
     <t>表名</t>
   </si>
@@ -711,6 +712,22 @@
   </si>
   <si>
     <t>2是日程，1是参与群组，3是参与个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,7 +1172,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1356,6 +1373,186 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1552,7 +1749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
@@ -1781,7 +1978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -1992,7 +2189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
@@ -2171,7 +2368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F12"/>
   <sheetViews>
@@ -2362,7 +2559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -2568,7 +2765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
@@ -2795,7 +2992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F17"/>
   <sheetViews>
@@ -3066,7 +3263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F9"/>
   <sheetViews>
@@ -3212,323 +3409,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>65</v>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3554,6 +3459,167 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3696,6 +3762,167 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -3858,7 +4085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -4021,7 +4248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -4182,11 +4409,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4273,167 +4500,6 @@
       </c>
       <c r="E6" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -4528,13 +4594,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -4555,16 +4621,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -4572,14 +4638,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -4587,14 +4653,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -4671,11 +4737,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4691,13 +4755,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" s="14"/>
     </row>
@@ -4718,16 +4782,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="27">
       <c r="A4" s="5" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -4735,14 +4799,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>42</v>
@@ -4750,93 +4814,76 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>210</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>208</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="4" t="s">
         <v>65</v>
       </c>
     </row>

--- a/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="日程事件表" sheetId="9" r:id="rId12"/>
     <sheet name="群成员表" sheetId="8" r:id="rId13"/>
     <sheet name="群组表" sheetId="7" r:id="rId14"/>
-    <sheet name="登陆记录表" sheetId="6" r:id="rId15"/>
-    <sheet name="关系人表" sheetId="5" r:id="rId16"/>
-    <sheet name="用户表" sheetId="4" r:id="rId17"/>
-    <sheet name="账户表" sheetId="3" r:id="rId18"/>
-    <sheet name="角色表" sheetId="20" r:id="rId19"/>
-    <sheet name="用户角色中间表" sheetId="21" r:id="rId20"/>
-    <sheet name="角色权限中间表" sheetId="22" r:id="rId21"/>
+    <sheet name="授权联系表" sheetId="24" r:id="rId15"/>
+    <sheet name="登陆记录表" sheetId="6" r:id="rId16"/>
+    <sheet name="关系人表" sheetId="5" r:id="rId17"/>
+    <sheet name="用户表" sheetId="4" r:id="rId18"/>
+    <sheet name="账户表" sheetId="3" r:id="rId19"/>
+    <sheet name="角色表" sheetId="20" r:id="rId20"/>
+    <sheet name="用户角色中间表" sheetId="21" r:id="rId21"/>
+    <sheet name="角色权限中间表" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="226">
   <si>
     <t>表名</t>
   </si>
@@ -545,9 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(6)</t>
-  </si>
-  <si>
     <t>ROLE_NAME</t>
   </si>
   <si>
@@ -585,10 +583,6 @@
   </si>
   <si>
     <t>角色权限中间表</t>
-  </si>
-  <si>
-    <t>0是完成，1是未完成，2是过期，3是未接受，-1是拒绝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>USER_CONTACT</t>
@@ -623,22 +617,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>唯一标识码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息队列名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_UUID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_QUEUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -728,6 +706,69 @@
   </si>
   <si>
     <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆地点</t>
+  </si>
+  <si>
+    <t>登陆地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：全部表结构用户ID，创建人，更新人更改为varchar（50），部分表字段增删
+新增：日程重复时间表，用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴宗煜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_LOCALTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_OTHER_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,24 +816,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -842,7 +871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,21 +893,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -886,6 +900,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,7 +1204,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1193,7 +1225,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1201,7 +1233,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1209,7 +1241,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1217,7 +1249,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1225,7 +1257,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1233,7 +1265,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1241,7 +1273,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1249,7 +1281,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1257,7 +1289,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1265,7 +1297,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1273,7 +1305,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1281,7 +1313,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1289,7 +1321,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1297,7 +1329,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1305,7 +1337,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1313,7 +1345,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1321,27 +1353,27 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
-        <v>172</v>
+      <c r="A18" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
-        <v>175</v>
+      <c r="A19" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="12" t="s">
-        <v>179</v>
+      <c r="A20" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1408,7 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1398,10 +1430,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1422,7 +1454,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -1437,7 +1469,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -1452,7 +1484,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
@@ -1467,19 +1499,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1494,7 +1526,7 @@
         <v>62</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1524,7 +1556,7 @@
         <v>67</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1553,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1578,10 +1610,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1602,7 +1634,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -1632,110 +1664,123 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>180</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1754,7 +1799,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1776,10 +1821,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1825,7 +1870,7 @@
         <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1859,20 +1904,20 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="27">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1890,19 +1935,19 @@
         <v>127</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>65</v>
@@ -1920,7 +1965,7 @@
         <v>62</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1950,7 +1995,7 @@
         <v>67</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1982,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2005,10 +2050,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2036,7 +2081,7 @@
         <v>113</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -2059,61 +2104,61 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -2131,7 +2176,7 @@
         <v>62</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2161,7 +2206,7 @@
         <v>67</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2194,7 +2239,7 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2216,10 +2261,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2280,7 +2325,7 @@
         <v>165</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2310,7 +2355,7 @@
         <v>62</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2340,7 +2385,7 @@
         <v>67</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2370,9 +2415,26 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2393,10 +2455,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2477,76 +2539,91 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>47</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2559,11 +2636,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2584,10 +2663,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2633,7 +2712,7 @@
         <v>88</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2693,7 +2772,7 @@
         <v>95</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>53</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2708,7 +2787,7 @@
         <v>62</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2738,7 +2817,7 @@
         <v>67</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2765,9 +2844,673 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="164.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="10">
+        <v>43413</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -2787,15 +3530,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="14"/>
+      <c r="E2" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2807,23 +3550,23 @@
       <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -2831,155 +3574,91 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>72</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>72</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>53</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="A10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2992,12 +3671,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3014,15 +3693,15 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="14"/>
+      <c r="E2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3034,451 +3713,6 @@
       <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E3" s="6" t="s">
         <v>38</v>
       </c>
@@ -3495,7 +3729,7 @@
         <v>160</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>42</v>
@@ -3503,11 +3737,11 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>44</v>
@@ -3518,14 +3752,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>42</v>
@@ -3543,7 +3777,7 @@
         <v>62</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3573,168 +3807,7 @@
         <v>67</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3786,10 +3859,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3949,10 +4022,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4112,10 +4185,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4273,10 +4346,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4436,10 +4509,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4493,7 +4566,7 @@
         <v>150</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>150</v>
@@ -4599,10 +4672,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4760,10 +4833,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">

--- a/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/产品APP数据字典.xlsx
@@ -9,31 +9,32 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
     <sheet name="更新日志" sheetId="23" r:id="rId2"/>
-    <sheet name="标签权限中间表" sheetId="18" r:id="rId3"/>
-    <sheet name="群组标签中间表" sheetId="17" r:id="rId4"/>
-    <sheet name="日程标签中间表" sheetId="16" r:id="rId5"/>
-    <sheet name="权限规则表" sheetId="15" r:id="rId6"/>
-    <sheet name="标签表" sheetId="14" r:id="rId7"/>
-    <sheet name="群组日程事件中间表" sheetId="13" r:id="rId8"/>
-    <sheet name="用户日程事件中间表" sheetId="12" r:id="rId9"/>
+    <sheet name="表关系" sheetId="26" r:id="rId3"/>
+    <sheet name="标签权限中间表" sheetId="18" r:id="rId4"/>
+    <sheet name="群组标签中间表" sheetId="17" r:id="rId5"/>
+    <sheet name="日程标签中间表" sheetId="16" r:id="rId6"/>
+    <sheet name="权限规则表" sheetId="15" r:id="rId7"/>
+    <sheet name="标签表" sheetId="14" r:id="rId8"/>
+    <sheet name="参与人日程事件中间表" sheetId="13" r:id="rId9"/>
     <sheet name="提醒时间表" sheetId="11" r:id="rId10"/>
     <sheet name="日程参与人表" sheetId="10" r:id="rId11"/>
     <sheet name="日程事件表" sheetId="9" r:id="rId12"/>
     <sheet name="群成员表" sheetId="8" r:id="rId13"/>
-    <sheet name="群组表" sheetId="7" r:id="rId14"/>
-    <sheet name="授权联系表" sheetId="24" r:id="rId15"/>
+    <sheet name="参与人群组表" sheetId="7" r:id="rId14"/>
+    <sheet name="用户授权表" sheetId="24" r:id="rId15"/>
     <sheet name="登陆记录表" sheetId="6" r:id="rId16"/>
     <sheet name="关系人表" sheetId="5" r:id="rId17"/>
     <sheet name="用户表" sheetId="4" r:id="rId18"/>
     <sheet name="账户表" sheetId="3" r:id="rId19"/>
     <sheet name="角色表" sheetId="20" r:id="rId20"/>
     <sheet name="用户角色中间表" sheetId="21" r:id="rId21"/>
-    <sheet name="角色权限中间表" sheetId="22" r:id="rId22"/>
+    <sheet name="角色权限表" sheetId="25" r:id="rId22"/>
+    <sheet name="角色权限中间表" sheetId="22" r:id="rId23"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="232">
   <si>
     <t>表名</t>
   </si>
@@ -107,12 +108,6 @@
     <t>GTD_REMIND</t>
   </si>
   <si>
-    <t>用户日程事件中间表</t>
-  </si>
-  <si>
-    <t>GTD_USER_SHCEDULE</t>
-  </si>
-  <si>
     <t>群组日程事件中间表</t>
   </si>
   <si>
@@ -465,12 +460,6 @@
   </si>
   <si>
     <t>REMIND_DATE</t>
-  </si>
-  <si>
-    <t>用户日常中间表自增主键</t>
-  </si>
-  <si>
-    <t>USER_SCHEDULE_ID</t>
   </si>
   <si>
     <t>群组日程事件自增主键</t>
@@ -685,14 +674,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1是系统设置，2是用户设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2是日程，1是参与群组，3是参与个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更新版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -747,11 +728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改：全部表结构用户ID，创建人，更新人更改为varchar（50），部分表字段增删
-新增：日程重复时间表，用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴宗煜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -769,6 +745,59 @@
   </si>
   <si>
     <t>SCHEDULE_OTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_USAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：全部表结构用户ID，创建人，更新人更改为varchar（50），部分表字段增删
+新增：日程重复时间表，用户授权表，角色权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系人备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系人方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系人权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复取消时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_USER_AUTHORIZE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,7 +805,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,6 +842,13 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -863,15 +899,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,12 +933,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -920,9 +951,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -936,6 +973,1173 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1771429" cy="1752381"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="1181100"/>
+          <a:ext cx="1771429" cy="1752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1885714" cy="1733333"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="161925"/>
+          <a:ext cx="1885714" cy="1733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2228571" cy="1428571"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="2476500"/>
+          <a:ext cx="2228571" cy="1428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2142857" cy="1285714"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11372850" y="4857750"/>
+          <a:ext cx="2142857" cy="1285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2285714" cy="1628571"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448050" y="4657725"/>
+          <a:ext cx="2285714" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2085714" cy="1323810"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6972300" y="133350"/>
+          <a:ext cx="2085714" cy="1323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1571429" cy="1047619"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11620500" y="3076575"/>
+          <a:ext cx="1571429" cy="1047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2190476" cy="1180952"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9648825" y="1028700"/>
+          <a:ext cx="2190476" cy="1180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2180952" cy="1323810"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="2038350"/>
+          <a:ext cx="2180952" cy="1323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2180952" cy="1238095"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="3848100"/>
+          <a:ext cx="2180952" cy="1238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>75964</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171341</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819164" y="1028592"/>
+          <a:ext cx="1524236" cy="1028699"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495161</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504707</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1866761" y="1895258"/>
+          <a:ext cx="9546" cy="581242"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476107</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>18831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428515</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4590907" y="2933481"/>
+          <a:ext cx="638208" cy="1724244"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628429</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171341</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6114829" y="795255"/>
+          <a:ext cx="857471" cy="1262036"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628429</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128505</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6114829" y="2057291"/>
+          <a:ext cx="705071" cy="642964"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85452</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128505</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9000852" y="1619176"/>
+          <a:ext cx="647973" cy="1081079"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142614</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76126</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9058014" y="795255"/>
+          <a:ext cx="590811" cy="823921"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180701</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>90400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+          <a:endCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11839301" y="1619176"/>
+          <a:ext cx="705124" cy="14274"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295006</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>90400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="1"/>
+          <a:endCxn id="24" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14696806" y="1609645"/>
+          <a:ext cx="514619" cy="23805"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>61815</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590416</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12406215" y="2333450"/>
+          <a:ext cx="1214401" cy="743125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>61815</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>99879</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12406215" y="4124194"/>
+          <a:ext cx="38064" cy="733556"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>366576</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>404676</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+          <a:endCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7910376" y="3362160"/>
+          <a:ext cx="38100" cy="485940"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2152381" cy="1400000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12544425" y="933450"/>
+          <a:ext cx="2152381" cy="1400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2219048" cy="1276190"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15211425" y="971550"/>
+          <a:ext cx="2219048" cy="1276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1371429" cy="1152381"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16192500" y="2533650"/>
+          <a:ext cx="1371429" cy="1152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1380952" cy="1152381"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15011400" y="4248150"/>
+          <a:ext cx="1380952" cy="1152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590416</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23741</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="1"/>
+          <a:endCxn id="24" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13620616" y="2333450"/>
+          <a:ext cx="2571884" cy="776391"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590416</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>614276</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="0"/>
+          <a:endCxn id="24" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13620616" y="2333450"/>
+          <a:ext cx="2081260" cy="1914700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1201,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1297,7 +2501,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1346,18 +2550,18 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1370,11 +2574,71 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="7" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>177</v>
-      </c>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1388,16 +2652,16 @@
     <hyperlink ref="A9" location="日程参与人表!A1" display="日程参与人表"/>
     <hyperlink ref="A10" location="提醒时间表!A1" display="提醒时间表"/>
     <hyperlink ref="A5" location="登陆记录表!A1" display="登陆记录表"/>
-    <hyperlink ref="A18" location="角色表!A1" display="角色表"/>
-    <hyperlink ref="A11" location="用户日程事件中间表!A1" display="用户日程事件中间表"/>
-    <hyperlink ref="A12" location="群组日程事件中间表!A1" display="群组日程事件中间表"/>
-    <hyperlink ref="A13" location="标签表!A1" display="标签表"/>
-    <hyperlink ref="A14" location="权限规则表!A1" display="权限规则表"/>
-    <hyperlink ref="A16" location="群组标签中间表!A1" display="群组标签中间表"/>
-    <hyperlink ref="A15" location="日程标签中间表!A1" display="日程标签中间表"/>
-    <hyperlink ref="A17" location="标签权限中间表!A1" display="标签权限中间表"/>
-    <hyperlink ref="A19" location="用户角色中间表!A1" display="用户角色中间表"/>
-    <hyperlink ref="A20" location="角色权限中间表!A1" display="角色权限中间表"/>
+    <hyperlink ref="A17" location="角色表!A1" display="角色表"/>
+    <hyperlink ref="A11" location="群组日程事件中间表!A1" display="群组日程事件中间表"/>
+    <hyperlink ref="A12" location="标签表!A1" display="标签表"/>
+    <hyperlink ref="A13" location="权限规则表!A1" display="权限规则表"/>
+    <hyperlink ref="A15" location="群组标签中间表!A1" display="群组标签中间表"/>
+    <hyperlink ref="A14" location="日程标签中间表!A1" display="日程标签中间表"/>
+    <hyperlink ref="A16" location="标签权限中间表!A1" display="标签权限中间表"/>
+    <hyperlink ref="A18" location="用户角色中间表!A1" display="用户角色中间表"/>
+    <hyperlink ref="A19" location="角色权限中间表!A1" display="角色权限中间表"/>
+    <hyperlink ref="A20" location="用户授权表!A1" display="用户授权表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1408,7 +2672,7 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1422,7 +2686,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>18</v>
@@ -1430,148 +2694,146 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>204</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1602,7 +2864,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -1610,178 +2872,178 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1796,10 +3058,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1813,7 +3075,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -1821,196 +3083,206 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27">
+      <c r="A8" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27">
-      <c r="A8" s="13" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>42</v>
+      <c r="F8" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>187</v>
-      </c>
+      <c r="A9" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" s="5" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>65</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2027,8 +3299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2042,7 +3314,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -2050,178 +3322,178 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2239,7 +3511,7 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2253,7 +3525,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -2261,146 +3533,146 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2415,14 +3687,88 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2447,7 +3793,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -2455,176 +3801,176 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +3987,7 @@
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2655,7 +4001,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -2663,176 +4009,176 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2863,7 +4209,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -2871,195 +4217,195 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="11" t="s">
+      <c r="D10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3090,7 +4436,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3098,208 +4444,208 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3314,10 +4660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3328,31 +4674,34 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27">
       <c r="A2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" s="10">
+        <v>206</v>
+      </c>
+      <c r="B2" s="8">
         <v>43413</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
-      </c>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3379,124 +4728,124 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="9"/>
+      <c r="E2" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3527,139 +4876,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="9"/>
+      <c r="E2" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3672,6 +5021,19 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -3690,139 +5052,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="9"/>
+      <c r="E2" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3835,6 +5197,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -3851,139 +5232,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="9"/>
+      <c r="E2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3995,7 +5376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -4014,139 +5395,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="9"/>
+      <c r="E2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4158,7 +5539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -4177,300 +5558,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="9"/>
+      <c r="E2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4487,7 +5707,7 @@
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4501,7 +5721,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4509,133 +5729,131 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>205</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4649,9 +5867,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4664,7 +5884,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>22</v>
@@ -4672,131 +5892,146 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4805,6 +6040,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4812,7 +6048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4825,7 +6063,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>20</v>
@@ -4833,131 +6071,131 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
